--- a/biology/Botanique/Cafeteriaceae/Cafeteriaceae.xlsx
+++ b/biology/Botanique/Cafeteriaceae/Cafeteriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cafeteriaceae sont une famille de chromistes de l'embranchement des Bigyra, de la classe des Bikosea et de l’ordre des Bicoecida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Cafeteria. Ce nom aurait été créé après la découverte, par le biologiste danois Tom Fenchel d'une nouvelle espèce, Cafeteria roenbergensis (minuscule organisme eucaryote ― 5 à 10 μm — mangé par les protozoaires et les petits invertébrés), en référence à l'importance nutritive du genre dans le réseau trophique marin[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Cafeteria. Ce nom aurait été créé après la découverte, par le biologiste danois Tom Fenchel d'une nouvelle espèce, Cafeteria roenbergensis (minuscule organisme eucaryote ― 5 à 10 μm — mangé par les protozoaires et les petits invertébrés), en référence à l'importance nutritive du genre dans le réseau trophique marin.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre type Cafeteria sont des cellules incolores, nues, réniformes et légèrement aplaties, portant 2 flagelles inégaux, se fixant à un substrat par la pointe du flagelle lisse. Ce dernier est dirigé vers l'arrière et suit un sillon peu profond sur la surface ventrale des cellules, permettant la progression des cellules natatoires. Le flagelle poilu est dirigé vers l'avant, formant un arc chez les cellules sessiles. 
-La zone cytostomiale (orifice buccal) est située à côté des flagelles. Les cellules se nourrissent de bactéries en suspension. Leur reproduction est inconnue à ce jour (avril 2011)[2].
+La zone cytostomiale (orifice buccal) est située à côté des flagelles. Les cellules se nourrissent de bactéries en suspension. Leur reproduction est inconnue à ce jour (avril 2011).
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre type Cafeteria sont principalement marine et largement distribuée, une espèce est également commune dans les eaux saumâtres[2].
-D'après Alexandra Schönle « La « Cafeteria » est connue pour être l'une des espèces de nanoflagellés hétérotrophes les plus courantes et les plus importantes sur le plan écologique dans le plancton marin[3] ».
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre type Cafeteria sont principalement marine et largement distribuée, une espèce est également commune dans les eaux saumâtres.
+D'après Alexandra Schönle « La « Cafeteria » est connue pour être l'une des espèces de nanoflagellés hétérotrophes les plus courantes et les plus importantes sur le plan écologique dans le plancton marin ».
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (8 septembre 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (8 septembre 2022) :
 Acronema Teal, T.Guillemette, M.Chapman &amp; Margulis, 1998
 Cafeteria T.Fenchel &amp; D.J.Patterson, 1988
 Espèce type (holotype) Cafeteria roenbergensis Fenchel &amp; D.J.Patterson 1988
@@ -641,9 +661,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Cafeteriaceae Moestrup[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Cafeteriaceae Moestrup.
 </t>
         </is>
       </c>
